--- a/extracteds/Cases/Compra_Candle_Queda.xlsx
+++ b/extracteds/Cases/Compra_Candle_Queda.xlsx
@@ -339,7 +339,8 @@
     <t xml:space="preserve">2021-05-26 10:10:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprar no fechamento para vender na abertura se: For um candle de queda maior ou igual a -0.2%, não for uma sexta-feira, o candle anterior for um candle de alta e o volume do dia anterior for maior que o volume do dia atual.</t>
+    <t xml:space="preserve">Comprar no fechamento para vender na abertura se: For um candle de queda maior ou igual a -0.2%(Candle vermelho), não for uma sexta-feira, o candle anterior for um candle de alta e o volume do dia anterior for maior que o volume do dia atual.
+caseCompraCandleQueda.py</t>
   </si>
 </sst>
 </file>
@@ -825,11 +826,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="10" style="1" width="9.140625"/>
   </cols>
@@ -2626,7 +2627,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>